--- a/Excel/data_validation_conditional_formating_consladiation.xlsx
+++ b/Excel/data_validation_conditional_formating_consladiation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="89">
   <si>
     <t>Consolidation</t>
   </si>
@@ -357,9 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -372,11 +369,45 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -654,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="81" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,19 +702,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="G1" s="5">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="G1" s="4">
         <v>2016</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>2017</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="4">
         <v>2018</v>
       </c>
     </row>
@@ -691,43 +722,43 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -735,7 +766,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
@@ -750,7 +781,7 @@
       <c r="G3" s="1">
         <v>55</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
@@ -765,7 +796,7 @@
       <c r="M3" s="1">
         <v>55</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="1">
@@ -785,7 +816,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -800,7 +831,7 @@
       <c r="G4" s="1">
         <v>47</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="1">
@@ -815,7 +846,7 @@
       <c r="M4" s="1">
         <v>47</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P4" s="1">
@@ -832,7 +863,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
@@ -847,7 +878,7 @@
       <c r="G5" s="1">
         <v>39</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="1">
@@ -862,7 +893,7 @@
       <c r="M5" s="1">
         <v>39</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="P5" s="1">
@@ -885,7 +916,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
@@ -900,7 +931,7 @@
       <c r="G6" s="1">
         <v>31</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="1">
@@ -915,7 +946,7 @@
       <c r="M6" s="1">
         <v>31</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="1">
@@ -938,7 +969,7 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
@@ -953,7 +984,7 @@
       <c r="G7" s="1">
         <v>23</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="1">
@@ -968,7 +999,7 @@
       <c r="M7" s="1">
         <v>23</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P7" s="1">
@@ -991,7 +1022,7 @@
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1">
@@ -1006,7 +1037,7 @@
       <c r="G8" s="1">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="1">
@@ -1021,7 +1052,7 @@
       <c r="M8" s="1">
         <v>15</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="P8" s="1">
@@ -1038,7 +1069,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1">
@@ -1053,7 +1084,7 @@
       <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -1068,7 +1099,7 @@
       <c r="M9" s="1">
         <v>7</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="1">
@@ -1107,57 +1138,57 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1">
@@ -1172,7 +1203,7 @@
       <c r="F15" s="1">
         <v>55</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1187,7 +1218,7 @@
       <c r="L15" s="1">
         <v>55</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O15" s="1">
@@ -1204,7 +1235,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1">
@@ -1219,7 +1250,7 @@
       <c r="F16" s="1">
         <v>47</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1234,7 +1265,7 @@
       <c r="L16" s="1">
         <v>47</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="1">
@@ -1251,7 +1282,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1">
@@ -1266,7 +1297,7 @@
       <c r="F17" s="1">
         <v>39</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1281,7 +1312,7 @@
       <c r="L17" s="1">
         <v>39</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="O17" s="1">
@@ -1298,7 +1329,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
@@ -1313,7 +1344,7 @@
       <c r="F18" s="1">
         <v>31</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="1">
@@ -1328,7 +1359,7 @@
       <c r="L18" s="1">
         <v>31</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O18" s="1">
@@ -1345,7 +1376,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1">
@@ -1360,7 +1391,7 @@
       <c r="F19" s="1">
         <v>23</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1375,7 +1406,7 @@
       <c r="L19" s="1">
         <v>23</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O19" s="1">
@@ -1392,7 +1423,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1">
@@ -1407,7 +1438,7 @@
       <c r="F20" s="1">
         <v>15</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1422,7 +1453,7 @@
       <c r="L20" s="1">
         <v>15</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O20" s="1">
@@ -1439,7 +1470,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="1">
@@ -1454,7 +1485,7 @@
       <c r="F21" s="1">
         <v>7</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="1">
@@ -1469,7 +1500,7 @@
       <c r="L21" s="1">
         <v>7</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="1">
@@ -1486,7 +1517,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1">
@@ -1501,7 +1532,7 @@
       <c r="F22" s="1">
         <v>11</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I22" s="1">
@@ -1516,7 +1547,7 @@
       <c r="L22" s="1">
         <v>11</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="1">
@@ -1533,13 +1564,16 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="J23" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1548,17 +1582,20 @@
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="J24" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,7 +1611,7 @@
       <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>45634</v>
       </c>
       <c r="F25" s="1">
@@ -1735,7 +1772,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1748,12 +1785,12 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1762,19 +1799,19 @@
       <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1788,16 +1825,16 @@
       <c r="D39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>44501</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>44177</v>
       </c>
     </row>
@@ -1811,7 +1848,7 @@
       <c r="H40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>44907</v>
       </c>
     </row>
@@ -1864,31 +1901,34 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
@@ -1907,8 +1947,11 @@
       <c r="F49" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
@@ -1919,13 +1962,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1" link="1">
+  <dataConsolidate topLabels="1" link="1">
     <dataRefs count="3">
       <dataRef ref="C2:G9" sheet="Sheet1"/>
       <dataRef ref="I2:M9" sheet="Sheet1"/>
@@ -1940,7 +1983,7 @@
     <mergeCell ref="A47:D47"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:C34">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1954,7 +1997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D34">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1966,7 +2009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F31">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1978,7 +2021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="iconSet" priority="2">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1987,12 +2030,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
       </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -2011,7 +2064,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F42">
       <formula1>$H$40:$H$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48 H48:H49">
       <formula1>$B$48:$D$48</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F48">
@@ -3324,7 +3377,7 @@
       </c>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1" link="1">
+  <dataConsolidate topLabels="1" link="1">
     <dataRefs count="3">
       <dataRef ref="B14:F22" sheet="Sheet1"/>
       <dataRef ref="H14:L22" sheet="Sheet1"/>
